--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6D0E7-C86A-4E22-B934-25BFD117507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7009F3-E8DB-4ADE-BA71-733FCCD6268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原型版" sheetId="1" r:id="rId1"/>
+    <sheet name="队伍相关" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +49,26 @@
   </si>
   <si>
     <t>三人一起行动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主角在队伍的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时离队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓暂时离队，是指某一些场景，只能主角自己进去，当主角回到可以一起的场景的时候，将自动把女主角加回来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -397,12 +418,12 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -410,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -418,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -426,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -434,12 +455,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFEF919-08C1-4CD2-A009-4C805E281F91}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7009F3-E8DB-4ADE-BA71-733FCCD6268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C858B9D-69A6-4927-8F76-3535C8D6D276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="原型版" sheetId="1" r:id="rId1"/>
-    <sheet name="队伍相关" sheetId="2" r:id="rId2"/>
+    <sheet name="主线流程" sheetId="3" r:id="rId1"/>
+    <sheet name="原型版" sheetId="1" r:id="rId2"/>
+    <sheet name="队伍相关" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +70,98 @@
   </si>
   <si>
     <t>所谓暂时离队，是指某一些场景，只能主角自己进去，当主角回到可以一起的场景的时候，将自动把女主角加回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_第一次进入KTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄毛来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_辣妹友好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始打扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打扫完毕了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到了座位上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_女主角喝酒次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_被要求去取酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出了房间，提示上厕所了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上了厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出了厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取了赢料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回了房间，触发了后续的剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣妹玩手机，说要再喊一个人来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_显示辣妹手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示黑屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示亮屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV事件开始中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -126,6 +225,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,66 +515,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D356D17C-9B90-49A6-A8E9-E565880CCFDC}">
+  <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="1">
-        <v>3</v>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -475,10 +556,239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFEF919-08C1-4CD2-A009-4C805E281F91}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C858B9D-69A6-4927-8F76-3535C8D6D276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A6528-F600-43D8-9811-3BFEC2E81056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主线流程" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>KTV事件开始中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_是否帮女二号开了灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -226,15 +230,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D356D17C-9B90-49A6-A8E9-E565880CCFDC}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -526,7 +538,7 @@
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -537,7 +549,7 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -545,7 +557,7 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -559,222 +571,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="31.109375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>100</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="I17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>100</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="C21" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+    <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
         <v>100</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A6528-F600-43D8-9811-3BFEC2E81056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CCD705-FDE1-41F9-B915-E7729F273370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CCD705-FDE1-41F9-B915-E7729F273370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED0857E-996D-42FF-A326-54A47FBFE3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主线流程" sheetId="3" r:id="rId1"/>
     <sheet name="原型版" sheetId="1" r:id="rId2"/>
-    <sheet name="队伍相关" sheetId="2" r:id="rId3"/>
+    <sheet name="队伍和本地化相关" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KTV_女主角喝酒次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KTV_被要求去取酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +162,40 @@
   </si>
   <si>
     <t>KTV_是否帮女二号开了灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_是否偷看了辣妹手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_和辣妹的友好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_替女主角喝酒次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣妹在队伍的状态</t>
+  </si>
+  <si>
+    <t>选择的语言</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -247,6 +277,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +578,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -558,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -571,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -640,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,13 +693,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,16 +707,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,10 +762,13 @@
     </row>
     <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,13 +786,16 @@
       <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="I22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -790,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -801,25 +841,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFEF919-08C1-4CD2-A009-4C805E281F91}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
     <col min="2" max="3" width="8.88671875" style="2"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -827,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -835,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -844,6 +884,77 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED0857E-996D-42FF-A326-54A47FBFE3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C64DF9-EFF3-443B-905C-D4A7111C48E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主线流程" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取了赢料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回了房间，触发了后续的剧情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,26 @@
   </si>
   <si>
     <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取了饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道她要喝什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道了她要喝什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给她拿了她要喝的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_辣妹喝饮料相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +594,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -592,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -605,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,13 +709,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,16 +723,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>5</v>
       </c>
@@ -749,10 +765,10 @@
         <v>16</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>100</v>
       </c>
@@ -760,7 +776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -768,10 +784,10 @@
         <v>20</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>0</v>
       </c>
@@ -779,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>1</v>
       </c>
@@ -787,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>2</v>
       </c>
@@ -798,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>3</v>
       </c>
@@ -808,29 +824,50 @@
       <c r="G24" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>100</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -843,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFEF919-08C1-4CD2-A009-4C805E281F91}">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -888,7 +925,7 @@
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -922,7 +959,7 @@
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C64DF9-EFF3-443B-905C-D4A7111C48E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16076122-5865-4608-BF1D-9B31B13DD5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,30 @@
   </si>
   <si>
     <t>KTV_辣妹喝饮料相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_支线_辣妹卖内裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去了隔壁，看到辣妹走了出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查了大学学生证，但被老头拿走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去厕所要回了学生证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老头走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去厕所找老头要到了学生证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -868,6 +892,67 @@
       </c>
       <c r="J27" s="6" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>100</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16076122-5865-4608-BF1D-9B31B13DD5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828186A5-1680-4894-9C3C-D54A17A562CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主线流程" sheetId="3" r:id="rId1"/>
     <sheet name="原型版" sheetId="1" r:id="rId2"/>
     <sheet name="队伍和本地化相关" sheetId="2" r:id="rId3"/>
+    <sheet name="其他" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出了厕所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回了房间，触发了后续的剧情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调查了大学学生证，但被老头拿走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去厕所要回了学生证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +229,22 @@
   </si>
   <si>
     <t>去厕所找老头要到了学生证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件分歧-场景对-玩家场景对象-朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查了大学学生证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老头拿走了内衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老头拿走了学生证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +627,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -632,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -643,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L36"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -714,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,16 +756,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,27 +866,21 @@
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I25" s="6">
         <v>0</v>
       </c>
       <c r="J25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>5</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,18 +888,18 @@
         <v>100</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="6">
         <v>2</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,15 +947,31 @@
         <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
         <v>100</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>50</v>
+      <c r="C38" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFEF919-08C1-4CD2-A009-4C805E281F91}">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1010,7 +1029,7 @@
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,7 +1063,7 @@
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1060,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,7 +1095,64 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8176EEF-BEF4-4606-AF78-FF12D5B51432}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828186A5-1680-4894-9C3C-D54A17A562CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA5908E-26B1-4C1C-AB97-877FBC572E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主线流程" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,18 +220,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去厕所要回了学生证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老头走了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去厕所找老头要到了学生证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件分歧-场景对-玩家场景对象-朝向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +237,38 @@
   </si>
   <si>
     <t>老头拿走了学生证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听到了老头门外奇怪的声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到了学生证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束了-【KTV_被要求去取酒】主线结束时触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_正在取谁的饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我自己的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L38"/>
+  <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -663,14 +687,16 @@
     <col min="1" max="1" width="8.88671875" style="4"/>
     <col min="2" max="2" width="8.88671875" style="5"/>
     <col min="3" max="3" width="31.109375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
+    <col min="4" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -717,12 +743,13 @@
     <row r="9" spans="1:12" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -741,7 +768,7 @@
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K13" s="6">
@@ -797,7 +824,7 @@
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -816,7 +843,7 @@
       <c r="G20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -835,7 +862,7 @@
       <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -857,7 +884,7 @@
       <c r="G24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -868,7 +895,7 @@
       <c r="C25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -876,7 +903,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -890,7 +917,7 @@
       <c r="C27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>2</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -901,6 +928,9 @@
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="I29" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
@@ -909,6 +939,12 @@
       <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
@@ -917,6 +953,12 @@
       <c r="C31" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
@@ -925,53 +967,73 @@
       <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I33" s="4">
+        <v>4</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>6</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>7</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
         <v>100</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>48</v>
+      <c r="C39" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1181,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA5908E-26B1-4C1C-AB97-877FBC572E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA90B451-EF8C-47D6-BDE3-14D4FA754FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
     <sheet name="队伍和本地化相关" sheetId="2" r:id="rId3"/>
     <sheet name="其他" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +280,26 @@
   </si>
   <si>
     <t>我自己的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意辣妹加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给辣妹点动画歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当辣妹关了灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮辣妹拿了饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +320,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -320,11 +358,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -355,6 +408,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,6 +429,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320228</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>229209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>575786</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="箭头: 下 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77061666-D60E-B864-1700-69439D3509DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5010447">
+          <a:off x="9675827" y="3271350"/>
+          <a:ext cx="441960" cy="3913158"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19165"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L39"/>
+  <dimension ref="A2:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +819,9 @@
     <col min="3" max="3" width="31.109375" style="6" customWidth="1"/>
     <col min="4" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="17" width="8.88671875" style="6"/>
+    <col min="18" max="18" width="25.21875" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>5</v>
       </c>
@@ -827,16 +959,36 @@
       <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>100</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -846,16 +998,24 @@
       <c r="I20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="S20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="12"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>1</v>
       </c>
@@ -865,16 +1025,28 @@
       <c r="I22" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="13">
+        <f>SUM(S17:S22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>3</v>
       </c>
@@ -887,8 +1059,10 @@
       <c r="I24" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="12"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>4</v>
       </c>
@@ -901,22 +1075,20 @@
       <c r="J25" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="12"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <v>100</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="R26" s="12"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I27" s="4">
         <v>2</v>
       </c>
@@ -924,121 +1096,130 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="28" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>100</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
+    <row r="31" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
         <v>0</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="C31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="s">
+    <row r="32" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="4">
         <v>2</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="4">
-        <v>3</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="4">
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="4">
-        <v>4</v>
-      </c>
       <c r="J33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="4">
         <v>4</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>52</v>
+      <c r="J34" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
         <v>100</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA90B451-EF8C-47D6-BDE3-14D4FA754FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB557E5E-F45E-4226-B1C7-5DA2DB88AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,26 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_分支_去隔壁房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_主角家_分支_被赶回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入了隔壁房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S40"/>
+  <dimension ref="A2:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1079,6 +1099,12 @@
       <c r="S25" s="13"/>
     </row>
     <row r="26" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>100</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="4">
         <v>1</v>
       </c>
@@ -1096,123 +1122,157 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <v>100</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>22</v>
+    <row r="29" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>56</v>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="4">
-        <v>2</v>
-      </c>
-      <c r="J32" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>100</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6" t="s">
+    <row r="42" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I42" s="4">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J42" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
+    <row r="43" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
         <v>3</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I43" s="4">
         <v>4</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5">
+    <row r="44" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
         <v>4</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
+    <row r="45" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
         <v>5</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
+    <row r="46" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
         <v>6</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
+    <row r="47" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
         <v>7</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
+    <row r="48" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
         <v>8</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
+    <row r="49" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
         <v>100</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB557E5E-F45E-4226-B1C7-5DA2DB88AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58962C95-5726-4140-8C17-360404506217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主线流程" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>KTV_男女主进入KTV后的第一段自言自语</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,23 +303,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KTV_分支_去隔壁房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KTV_主角家_分支_被赶回家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进入了隔壁房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结束了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐在椅子上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走到房门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_主线_去隔壁房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV_分支_主角家_被赶回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始了-短信来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了短信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,10 +838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S49"/>
+  <dimension ref="A2:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1136,7 @@
     </row>
     <row r="29" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,131 +1160,182 @@
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
         <v>100</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>56</v>
-      </c>
+    <row r="38" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
     </row>
     <row r="40" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>57</v>
+      <c r="A40" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="4">
-        <v>2</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="4">
-        <v>3</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="4">
-        <v>4</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5">
-        <v>5</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="5">
-        <v>6</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>48</v>
+      <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="4">
+        <v>3</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
         <v>8</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5">
+    <row r="56" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="5">
         <v>100</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Truth-or-Dare/策划文档/数值变量.xlsx
+++ b/Truth-or-Dare/策划文档/数值变量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58962C95-5726-4140-8C17-360404506217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53CD774-23D5-44D5-B15E-1579C4264B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,7 +841,7 @@
   <dimension ref="A2:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
